--- a/biology/Zoologie/Hyloscirtus/Hyloscirtus.xlsx
+++ b/biology/Zoologie/Hyloscirtus/Hyloscirtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloscirtus est un genre d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloscirtus est un genre d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent en Amérique centrale et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent en Amérique centrale et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2023) :
 Hyloscirtus albopunctulatus (Boulenger, 1882)
 Hyloscirtus alytolylax (Duellman, 1972)
 Hyloscirtus bogotensis Peters, 1882
@@ -592,7 +608,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1882 : Eine neue Gattung von Batrachiern, Hylonomus, aus Bogotá vor. Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1882, no 7, p. 107-109 (texte intégral).
 Peters, 1882 : Den Namen der Batrachiergattung Hylonomus in Hyloscirtus zu ändern und legte zwei neue Arten von Schlangen, Microsoma notatum, und Liophis ygraecum. Sitzungsberichte der Gesellschaft naturforschender Freunde zu Berlin, vol. 1882, no 8, p. 127-129 (texte intégral).</t>
